--- a/case_study1/threshold_0.75/exchanges_only_in_our_analysis_label_0_analysis.xlsx
+++ b/case_study1/threshold_0.75/exchanges_only_in_our_analysis_label_0_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\W2RKG_application\case_study1\threshold_0.75\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC388A8-A2A9-4C79-BE77-DDD70DEADF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0331A40F-6D3D-4EDC-97C3-95FB86996A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{FC631C29-CFC4-4901-A1F2-60DD499C3C35}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="74">
   <si>
     <t>waste</t>
   </si>
@@ -159,10 +159,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>contain Fe</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Contain Ca and Si</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -230,6 +226,30 @@
   </si>
   <si>
     <t>as adsorbent</t>
+  </si>
+  <si>
+    <t>as catalyst</t>
+  </si>
+  <si>
+    <t>replacement for cement; as additive</t>
+  </si>
+  <si>
+    <t>as concrete component</t>
+  </si>
+  <si>
+    <t>alternative source of energy</t>
+  </si>
+  <si>
+    <t>contain thermal energy</t>
+  </si>
+  <si>
+    <t>Contain nutrients such as Ca and Si</t>
+  </si>
+  <si>
+    <t>in cement, concrete, aggregates, etc</t>
+  </si>
+  <si>
+    <t>replace natural raw material</t>
   </si>
 </sst>
 </file>
@@ -1268,10 +1288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477BCDC5-92EA-4EE9-BC8A-8859CA453E46}">
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1319,7 +1339,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1333,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1347,7 +1367,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1361,7 +1381,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1417,43 +1437,49 @@
         <v>2</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="D11" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="43.2">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="5">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="5">
         <v>0</v>
@@ -1462,21 +1488,19 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>5</v>
@@ -1485,24 +1509,26 @@
         <v>1</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C17" s="5">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>7</v>
@@ -1512,32 +1538,30 @@
       </c>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="43.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" ht="43.2">
+      <c r="A20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="5">
-        <v>1</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="C20" s="5">
         <v>1</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1545,75 +1569,77 @@
         <v>18</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" ht="28.8">
+    <row r="24" spans="1:4">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" ht="28.8">
+      <c r="A25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="5">
-        <v>0</v>
-      </c>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="1:4" ht="57.6">
-      <c r="A25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="C25" s="5">
-        <v>1</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4" ht="57.6">
       <c r="A26" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="57.6">
@@ -1621,30 +1647,32 @@
         <v>19</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="57.6">
+      <c r="A28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="5">
-        <v>0</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="5" t="s">
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="5">
-        <v>0</v>
-      </c>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:4" ht="28.8">
-      <c r="A29" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>5</v>
@@ -1652,41 +1680,39 @@
       <c r="C29" s="5">
         <v>0</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:4" ht="28.8">
       <c r="A30" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C30" s="5">
         <v>1</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="5">
-        <v>1</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="28.8">
-      <c r="A32" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>5</v>
@@ -1695,62 +1721,66 @@
         <v>1</v>
       </c>
       <c r="D32" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="28.8">
+      <c r="A33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="5">
-        <v>1</v>
-      </c>
-      <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="5">
-        <v>0</v>
-      </c>
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="1:4" ht="28.8">
-      <c r="A35" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="5">
-        <v>1</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:4" ht="28.8">
       <c r="A36" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="5">
-        <v>0</v>
-      </c>
-      <c r="D36" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>6</v>
@@ -1765,58 +1795,52 @@
         <v>24</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38" s="5">
-        <v>1</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="43.2">
+        <v>0</v>
+      </c>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0</v>
+      </c>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:4" ht="43.2">
+      <c r="A40" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="5">
-        <v>1</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="28.8">
-      <c r="A40" s="5" t="s">
+      <c r="C40" s="5">
+        <v>0</v>
+      </c>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:4" ht="28.8">
+      <c r="A41" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="5">
-        <v>0</v>
-      </c>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="5">
-        <v>1</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D41" s="6"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>8</v>
@@ -1825,41 +1849,41 @@
         <v>1</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="5">
+        <v>0</v>
+      </c>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="5">
-        <v>1</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="28.8">
-      <c r="A44" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C44" s="5">
-        <v>0</v>
-      </c>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:4" ht="43.2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="28.8">
       <c r="A45" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C45" s="5">
         <v>0</v>
@@ -1868,57 +1892,61 @@
     </row>
     <row r="46" spans="1:4" ht="43.2">
       <c r="A46" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C46" s="5">
-        <v>1</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:4" ht="43.2">
       <c r="A47" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C47" s="5">
         <v>1</v>
       </c>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:4" ht="43.2">
+      <c r="D47" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C48" s="5">
         <v>1</v>
       </c>
-      <c r="D48" s="6"/>
+      <c r="D48" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="49" spans="1:4" ht="43.2">
       <c r="A49" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C49" s="5">
         <v>1</v>
       </c>
-      <c r="D49" s="6"/>
+      <c r="D49" s="6" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="50" spans="1:4" ht="43.2">
       <c r="A50" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>25</v>
@@ -1926,26 +1954,28 @@
       <c r="C50" s="5">
         <v>1</v>
       </c>
-      <c r="D50" s="6"/>
-    </row>
-    <row r="51" spans="1:4" ht="28.8">
+      <c r="D50" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="43.2">
       <c r="A51" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C51" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51" s="6"/>
     </row>
-    <row r="52" spans="1:4" ht="43.2">
+    <row r="52" spans="1:4" ht="28.8">
       <c r="A52" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C52" s="5">
         <v>1</v>
@@ -1954,46 +1984,46 @@
     </row>
     <row r="53" spans="1:4" ht="43.2">
       <c r="A53" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C53" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" s="6"/>
     </row>
     <row r="54" spans="1:4" ht="43.2">
       <c r="A54" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C54" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" s="6"/>
     </row>
-    <row r="55" spans="1:4" ht="28.8">
+    <row r="55" spans="1:4" ht="43.2">
       <c r="A55" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C55" s="5">
         <v>1</v>
       </c>
       <c r="D55" s="6"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" ht="28.8">
       <c r="A56" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C56" s="5">
         <v>1</v>
@@ -2002,19 +2032,19 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C57" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" s="6"/>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>13</v>
@@ -2026,34 +2056,34 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C59" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" s="6"/>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C60" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" s="6"/>
     </row>
-    <row r="61" spans="1:4" ht="57.6">
+    <row r="61" spans="1:4">
       <c r="A61" s="5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C61" s="5">
         <v>0</v>
@@ -2065,10 +2095,10 @@
         <v>29</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C62" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" s="6"/>
     </row>
@@ -2077,10 +2107,10 @@
         <v>29</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C63" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63" s="6"/>
     </row>
@@ -2089,27 +2119,25 @@
         <v>29</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C64" s="5">
-        <v>1</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D64" s="6"/>
     </row>
     <row r="65" spans="1:4" ht="57.6">
       <c r="A65" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C65" s="5">
         <v>1</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="57.6">
@@ -2117,13 +2145,13 @@
         <v>29</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C66" s="5">
         <v>1</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="57.6">
@@ -2131,13 +2159,13 @@
         <v>29</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C67" s="5">
         <v>1</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="57.6">
@@ -2145,13 +2173,13 @@
         <v>29</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C68" s="5">
         <v>1</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="57.6">
@@ -2159,22 +2187,24 @@
         <v>29</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C69" s="5">
         <v>1</v>
       </c>
-      <c r="D69" s="6"/>
+      <c r="D69" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="70" spans="1:4" ht="57.6">
       <c r="A70" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C70" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" s="6"/>
     </row>
@@ -2183,33 +2213,33 @@
         <v>29</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C71" s="5">
-        <v>1</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>60</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D71" s="6"/>
     </row>
     <row r="72" spans="1:4" ht="57.6">
       <c r="A72" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C72" s="5">
         <v>1</v>
       </c>
-      <c r="D72" s="6"/>
+      <c r="D72" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="73" spans="1:4" ht="57.6">
       <c r="A73" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C73" s="5">
         <v>1</v>
@@ -2221,7 +2251,7 @@
         <v>29</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C74" s="5">
         <v>1</v>
@@ -2233,7 +2263,7 @@
         <v>29</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C75" s="5">
         <v>1</v>
@@ -2245,7 +2275,7 @@
         <v>29</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C76" s="5">
         <v>1</v>
@@ -2257,7 +2287,7 @@
         <v>29</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C77" s="5">
         <v>1</v>
@@ -2269,7 +2299,7 @@
         <v>29</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C78" s="5">
         <v>1</v>
@@ -2281,10 +2311,10 @@
         <v>29</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C79" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" s="6"/>
     </row>
@@ -2293,27 +2323,25 @@
         <v>29</v>
       </c>
       <c r="B80" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="5">
+        <v>0</v>
+      </c>
+      <c r="D80" s="6"/>
+    </row>
+    <row r="81" spans="1:4" ht="57.6">
+      <c r="A81" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B81" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C80" s="5">
-        <v>1</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="28.8">
-      <c r="A81" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="C81" s="5">
         <v>1</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="28.8">
@@ -2321,147 +2349,149 @@
         <v>35</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C82" s="5">
         <v>1</v>
       </c>
-      <c r="D82" s="6"/>
-    </row>
-    <row r="83" spans="1:4" ht="43.2">
+      <c r="D82" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="28.8">
       <c r="A83" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C83" s="5">
         <v>1</v>
       </c>
       <c r="D83" s="6"/>
     </row>
-    <row r="84" spans="1:4" ht="28.8">
+    <row r="84" spans="1:4" ht="43.2">
       <c r="A84" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C84" s="5">
         <v>1</v>
       </c>
-      <c r="D84" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="D84" s="6"/>
     </row>
     <row r="85" spans="1:4" ht="28.8">
       <c r="A85" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B85" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" s="5">
+        <v>1</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="28.8">
+      <c r="A86" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B86" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C85" s="5">
-        <v>1</v>
-      </c>
-      <c r="D85" s="6"/>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="C86" s="5">
         <v>1</v>
       </c>
-      <c r="D86" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="D86" s="6"/>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C87" s="5">
-        <v>0</v>
-      </c>
-      <c r="D87" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C88" s="5">
-        <v>1</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="28.8">
+        <v>0</v>
+      </c>
+      <c r="D88" s="6"/>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C89" s="5">
-        <v>0</v>
-      </c>
-      <c r="D89" s="6"/>
-    </row>
-    <row r="90" spans="1:4" ht="43.2">
+        <v>1</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="28.8">
       <c r="A90" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C90" s="5">
-        <v>1</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D90" s="6"/>
     </row>
     <row r="91" spans="1:4" ht="43.2">
       <c r="A91" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C91" s="5">
         <v>1</v>
       </c>
-      <c r="D91" s="6"/>
+      <c r="D91" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="92" spans="1:4" ht="43.2">
       <c r="A92" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C92" s="5">
         <v>1</v>
       </c>
       <c r="D92" s="6"/>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" ht="43.2">
       <c r="A93" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C93" s="5">
         <v>1</v>
@@ -2473,10 +2503,10 @@
         <v>36</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C94" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94" s="6"/>
     </row>
@@ -2485,48 +2515,60 @@
         <v>36</v>
       </c>
       <c r="B95" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="5">
+        <v>0</v>
+      </c>
+      <c r="D95" s="6"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C95" s="5">
-        <v>0</v>
-      </c>
-      <c r="D95" s="6"/>
-    </row>
-    <row r="96" spans="1:4" ht="28.8">
-      <c r="A96" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="C96" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96" s="6"/>
     </row>
-    <row r="97" spans="1:4" ht="43.2">
+    <row r="97" spans="1:4" ht="28.8">
       <c r="A97" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C97" s="5">
         <v>1</v>
       </c>
       <c r="D97" s="6"/>
     </row>
-    <row r="98" spans="1:4" ht="28.8">
+    <row r="98" spans="1:4" ht="43.2">
       <c r="A98" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B98" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="5">
+        <v>1</v>
+      </c>
+      <c r="D98" s="6"/>
+    </row>
+    <row r="99" spans="1:4" ht="28.8">
+      <c r="A99" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B99" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C98" s="5">
-        <v>1</v>
-      </c>
-      <c r="D98" s="6"/>
+      <c r="C99" s="5">
+        <v>1</v>
+      </c>
+      <c r="D99" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
